--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/121.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/121.xlsx
@@ -479,13 +479,13 @@
         <v>-6.561003828149346</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.54752054853973</v>
+        <v>-21.04638267766035</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03670163984599503</v>
+        <v>0.2186166963570333</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.846931844771081</v>
+        <v>-9.222969807939844</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.802322050477982</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.6973050519214</v>
+        <v>-21.31084861511924</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.08523996942859761</v>
+        <v>0.07033311808350295</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.312490059114273</v>
+        <v>-8.691691209725931</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-7.073821099986429</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.93973623543112</v>
+        <v>-21.55653587720232</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2250557878086313</v>
+        <v>-0.08200344688269992</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.180516207748772</v>
+        <v>-8.443686558387936</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.337391536813741</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.00442268528727</v>
+        <v>-21.5842907691858</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.224498441025803</v>
+        <v>0.02604360487612044</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.713884947336075</v>
+        <v>-7.868108668952907</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.579431288373731</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.96994540886178</v>
+        <v>-21.61237811363622</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.360041267404153</v>
+        <v>-0.07732466731106231</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.947674902146296</v>
+        <v>-6.956895569097298</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.766108558585726</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.22522490241775</v>
+        <v>-21.91886506511625</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4617521662634516</v>
+        <v>-0.3118063256551701</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.352276978872794</v>
+        <v>-6.248087353531969</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.87806012435316</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.60467539237962</v>
+        <v>-22.39064933876668</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6287801968647339</v>
+        <v>-0.530193373393394</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.943218663324887</v>
+        <v>-5.818006308456328</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.894147176326884</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.83248355635039</v>
+        <v>-22.39136802277612</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7677893291117266</v>
+        <v>-0.721495323088909</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.660330947991454</v>
+        <v>-5.473253100228954</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.793107891274991</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.29919304087295</v>
+        <v>-22.69438377938064</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.8649338955573266</v>
+        <v>-0.7303004244562228</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.40452833070073</v>
+        <v>-5.233413090358707</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.57173621590452</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.74841454783257</v>
+        <v>-23.22443034786409</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.105272584127998</v>
+        <v>-1.061545306710311</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.088498037816481</v>
+        <v>-4.679146381856559</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-7.234311525012393</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.22300022241773</v>
+        <v>-23.81501259937368</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.044531562813447</v>
+        <v>-0.9685759521290566</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.91433694619637</v>
+        <v>-4.461722468471118</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.790343743201641</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.84868554323177</v>
+        <v>-24.37958533435129</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.9803682366920554</v>
+        <v>-0.8623916119865308</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.809849091436663</v>
+        <v>-4.451851563606817</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.273083882553172</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.42599903010456</v>
+        <v>-24.90454244668628</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8671095036131038</v>
+        <v>-0.7997878790556849</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.693647176223829</v>
+        <v>-4.232848501003361</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.71412259437237</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.0692994426601</v>
+        <v>-25.49304198127057</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8571017065565288</v>
+        <v>-0.7215784362056465</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.64345663172808</v>
+        <v>-4.155406632231429</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.142520851993861</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.80667168084538</v>
+        <v>-26.26870247673409</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7816643306000313</v>
+        <v>-0.5916628567311156</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.545984501822397</v>
+        <v>-4.014407674189601</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.594885556188834</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.62857973676648</v>
+        <v>-27.09035385979468</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.684417095010226</v>
+        <v>-0.4951880842262829</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.569089948275437</v>
+        <v>-4.139996482586913</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.092897184210582</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.4409542292971</v>
+        <v>-27.81844920744999</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5475053467091398</v>
+        <v>-0.406261938323967</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.758103842757236</v>
+        <v>-4.455645432935543</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.649653959770291</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.14073978268954</v>
+        <v>-28.42823303342939</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2689590694735275</v>
+        <v>-0.1542971914237712</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.974642845899766</v>
+        <v>-4.523250619891242</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.279435457198684</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.58164508896853</v>
+        <v>-28.92361654322642</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0892929561212701</v>
+        <v>0.04108707900561773</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.276235901506015</v>
+        <v>-4.827767301603907</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.979942072567857</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.20279585591351</v>
+        <v>-29.52104829335655</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3558804531525374</v>
+        <v>0.5259250009907063</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.548318911663566</v>
+        <v>-5.254220703584297</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.744936645977401</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.72392732037514</v>
+        <v>-29.96847309029258</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3729235310906029</v>
+        <v>0.5695838323122567</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.809704774796306</v>
+        <v>-5.433446806318532</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.569708498188399</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.08760342968091</v>
+        <v>-30.3187606542933</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6430704945288553</v>
+        <v>0.9230052497146713</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.103705202738237</v>
+        <v>-5.782414338465188</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.439323503368078</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.30431843707065</v>
+        <v>-30.41512542414362</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8634718130962481</v>
+        <v>1.241533825107914</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.320747773588059</v>
+        <v>-5.96590854419424</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.342256863145075</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.58133689966035</v>
+        <v>-30.77862552920218</v>
       </c>
       <c r="F25" t="n">
-        <v>1.086405637220703</v>
+        <v>1.511974128958181</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.369388502906996</v>
+        <v>-6.125192387918328</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.271162418811568</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.46168823460634</v>
+        <v>-30.55595815595198</v>
       </c>
       <c r="F26" t="n">
-        <v>1.126231487158592</v>
+        <v>1.510419424774502</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.482236559409127</v>
+        <v>-6.170278809245018</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-2.214910099412537</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.54157460681173</v>
+        <v>-30.61174905781378</v>
       </c>
       <c r="F27" t="n">
-        <v>1.356498821583419</v>
+        <v>1.651056596308178</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.788684398834222</v>
+        <v>-6.410764168021697</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.169747655697153</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.38097317573701</v>
+        <v>-30.49235217661342</v>
       </c>
       <c r="F28" t="n">
-        <v>1.507569133771091</v>
+        <v>1.799682405062392</v>
       </c>
       <c r="G28" t="n">
-        <v>-6.912850506233262</v>
+        <v>-6.452154500157</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.136167744432193</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.19358732054189</v>
+        <v>-30.2328314696004</v>
       </c>
       <c r="F29" t="n">
-        <v>1.527120272231884</v>
+        <v>1.769942576290949</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.189851857298929</v>
+        <v>-6.922960972434042</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.112066822211597</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.03641308328088</v>
+        <v>-30.12673268707805</v>
       </c>
       <c r="F30" t="n">
-        <v>1.637323376019014</v>
+        <v>2.019565488901892</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.231349747585303</v>
+        <v>-7.15476345501508</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.101307494889542</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.75687678215471</v>
+        <v>-29.78861630567251</v>
       </c>
       <c r="F31" t="n">
-        <v>1.590814253694052</v>
+        <v>1.89730609418095</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.232616000363834</v>
+        <v>-7.111837974723567</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.110072543110705</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.36436531034788</v>
+        <v>-29.53918161982594</v>
       </c>
       <c r="F32" t="n">
-        <v>1.542696648109875</v>
+        <v>1.760247675673856</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.276079271410707</v>
+        <v>-7.266956384597044</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.139716335097496</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.8441652016944</v>
+        <v>-28.94731600401379</v>
       </c>
       <c r="F33" t="n">
-        <v>1.522089484165828</v>
+        <v>1.861401227750326</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.546866694748526</v>
+        <v>-7.723462511788361</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.194863540652971</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.23088573580515</v>
+        <v>-28.26464686366242</v>
       </c>
       <c r="F34" t="n">
-        <v>1.531647492590647</v>
+        <v>1.790119507630707</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.527183553102327</v>
+        <v>-7.587601899963661</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.279481098750341</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.79170135994331</v>
+        <v>-27.70102015151356</v>
       </c>
       <c r="F35" t="n">
-        <v>1.555236950723512</v>
+        <v>1.911303320840927</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.564843572998172</v>
+        <v>-7.715962775254513</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.391229184065346</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.15753116771174</v>
+        <v>-27.120888152182</v>
       </c>
       <c r="F36" t="n">
-        <v>1.444373831009348</v>
+        <v>1.784986050420446</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.479530403170506</v>
+        <v>-7.72100823034117</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.532864794607411</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.48244732151439</v>
+        <v>-26.3101954780136</v>
       </c>
       <c r="F37" t="n">
-        <v>1.567948368577491</v>
+        <v>2.027720352355906</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.414198604407922</v>
+        <v>-7.622030286320476</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.705859402748879</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.97588265301274</v>
+        <v>-25.81372660869212</v>
       </c>
       <c r="F38" t="n">
-        <v>1.42891968030303</v>
+        <v>1.760966359683293</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.375057215431401</v>
+        <v>-7.493923639386704</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.90403934251972</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.22981531611465</v>
+        <v>-25.05308514232376</v>
       </c>
       <c r="F39" t="n">
-        <v>1.477672856779906</v>
+        <v>1.712638526803838</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.382087607306024</v>
+        <v>-7.569678800789551</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.128024760772115</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.56798067852664</v>
+        <v>-24.42041343069689</v>
       </c>
       <c r="F40" t="n">
-        <v>1.534233777223245</v>
+        <v>1.881001256279789</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.093455308903967</v>
+        <v>-7.395009252455281</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.375535949888928</v>
       </c>
       <c r="E41" t="n">
-        <v>-25.02974991254797</v>
+        <v>-23.86029946998191</v>
       </c>
       <c r="F41" t="n">
-        <v>1.537162292336527</v>
+        <v>1.933318518762645</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.136268342037541</v>
+        <v>-7.465904741032414</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.636500929936284</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.31617980429426</v>
+        <v>-23.22939757884087</v>
       </c>
       <c r="F42" t="n">
-        <v>1.558248578953531</v>
+        <v>1.995272013780192</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.854514876297232</v>
+        <v>-7.211774164090175</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.912089969834809</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.61340951220958</v>
+        <v>-22.54509306569252</v>
       </c>
       <c r="F43" t="n">
-        <v>1.504298388177125</v>
+        <v>1.775100478535544</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.863222197527208</v>
+        <v>-7.171826088980613</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.200645401743114</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.91494154616777</v>
+        <v>-21.88683229212423</v>
       </c>
       <c r="F44" t="n">
-        <v>1.61533262313163</v>
+        <v>1.903691137149141</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.750643036402757</v>
+        <v>-7.112541991712403</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.493981514046336</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.1073558358633</v>
+        <v>-21.10569610896976</v>
       </c>
       <c r="F45" t="n">
-        <v>1.659993700860898</v>
+        <v>1.882291954092654</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.665442313733031</v>
+        <v>-7.034557443178242</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.797446710715284</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.60454592463542</v>
+        <v>-20.61394513127485</v>
       </c>
       <c r="F46" t="n">
-        <v>1.664115133649708</v>
+        <v>1.845350618206245</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.50744427881494</v>
+        <v>-6.881169741735653</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.110911704589999</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.94041834282683</v>
+        <v>-20.13728162877124</v>
       </c>
       <c r="F47" t="n">
-        <v>1.742965036399312</v>
+        <v>1.943252980716217</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.479572050666659</v>
+        <v>-6.97411954028944</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.429978728780752</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.30494523026523</v>
+        <v>-19.42719249340679</v>
       </c>
       <c r="F48" t="n">
-        <v>1.772758644246292</v>
+        <v>1.944475232432945</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.439731533708168</v>
+        <v>-6.934909705216782</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.764639274079591</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.56415313177654</v>
+        <v>-18.78243515680491</v>
       </c>
       <c r="F49" t="n">
-        <v>1.928742408335213</v>
+        <v>2.000209910715776</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.167247624987531</v>
+        <v>-6.543031359799214</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.116750920589302</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.17691934288254</v>
+        <v>-18.42871550998361</v>
       </c>
       <c r="F50" t="n">
-        <v>1.935401235687951</v>
+        <v>1.978316937965731</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.151681027123273</v>
+        <v>-6.58462214121606</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.483769088441541</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.58951983484331</v>
+        <v>-17.98676884524197</v>
       </c>
       <c r="F51" t="n">
-        <v>1.908330804665843</v>
+        <v>2.027959913692385</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.186319640775366</v>
+        <v>-6.604437286047666</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.873471275962687</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.04755386761832</v>
+        <v>-17.48187132808193</v>
       </c>
       <c r="F52" t="n">
-        <v>1.93629103493773</v>
+        <v>1.978326715979464</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.208232169552879</v>
+        <v>-6.556974807383655</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.28114469347998</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.68059967920829</v>
+        <v>-17.29876335389536</v>
       </c>
       <c r="F53" t="n">
-        <v>2.028698153729289</v>
+        <v>2.031132879149013</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.094694763082513</v>
+        <v>-6.511477709480145</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.700151583787433</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.06916092440444</v>
+        <v>-16.69811463724679</v>
       </c>
       <c r="F54" t="n">
-        <v>2.084403497970918</v>
+        <v>2.135855406238331</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.083528271398479</v>
+        <v>-6.345549705423918</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.131594035525724</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.81217027844505</v>
+        <v>-16.50475441566031</v>
       </c>
       <c r="F55" t="n">
-        <v>2.024747836180822</v>
+        <v>1.99858676043596</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.316675230867919</v>
+        <v>-6.609785859560071</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.562177507732194</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.29877566735031</v>
+        <v>-16.17573403153066</v>
       </c>
       <c r="F56" t="n">
-        <v>2.065057697798536</v>
+        <v>2.009063902151759</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.174434465081895</v>
+        <v>-6.380036759863136</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.982777321179331</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.19901059322405</v>
+        <v>-16.2025795682369</v>
       </c>
       <c r="F57" t="n">
-        <v>2.091179661488462</v>
+        <v>1.967849574263666</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.322674042293624</v>
+        <v>-6.464078787905405</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.389646727604493</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.93061389424415</v>
+        <v>-15.80237524412497</v>
       </c>
       <c r="F58" t="n">
-        <v>1.963322353904903</v>
+        <v>1.965581075077417</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.499411640532599</v>
+        <v>-6.722423688766924</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.765098591855061</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.6552650274995</v>
+        <v>-15.60655096307756</v>
       </c>
       <c r="F59" t="n">
-        <v>2.025569189334464</v>
+        <v>1.992597727023989</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.291144837008889</v>
+        <v>-6.363174575179147</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-10.10298645573033</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.37753521441066</v>
+        <v>-15.2818915730732</v>
       </c>
       <c r="F60" t="n">
-        <v>2.082257223956343</v>
+        <v>1.924655198594472</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.310319521940929</v>
+        <v>-6.280095681489661</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-10.40001324283046</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.22706136106075</v>
+        <v>-15.33974319132941</v>
       </c>
       <c r="F61" t="n">
-        <v>2.015825398648702</v>
+        <v>1.932902953178958</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.143364826442651</v>
+        <v>-6.077011225244881</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-10.64038036101434</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.17618635560364</v>
+        <v>-15.2029830022412</v>
       </c>
       <c r="F62" t="n">
-        <v>2.05478100536428</v>
+        <v>1.959650709747849</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.231640734431667</v>
+        <v>-6.194161607789898</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.82690198125883</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.0697966771727</v>
+        <v>-15.08881980289187</v>
       </c>
       <c r="F63" t="n">
-        <v>2.018353015198897</v>
+        <v>2.0381094919481</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.281977949133424</v>
+        <v>-6.095789900620701</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-10.95982076265096</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.14529761021847</v>
+        <v>-15.27745724384491</v>
       </c>
       <c r="F64" t="n">
-        <v>1.867732491642981</v>
+        <v>1.852239228881728</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.276546262504281</v>
+        <v>-6.055704933318866</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-11.02694822512546</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.13046925239112</v>
+        <v>-15.20498260604977</v>
       </c>
       <c r="F65" t="n">
-        <v>1.880888809121849</v>
+        <v>1.934692329692248</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.362079437640959</v>
+        <v>-6.067091430311911</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-11.03621727984157</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.12486156151476</v>
+        <v>-15.24442222444517</v>
       </c>
       <c r="F66" t="n">
-        <v>1.924102740818511</v>
+        <v>1.908345471686444</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.25951296257995</v>
+        <v>-6.023491267072764</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.98649113344907</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.97801535126011</v>
+        <v>-15.07149805156239</v>
       </c>
       <c r="F67" t="n">
-        <v>1.73583686438735</v>
+        <v>1.728361572887837</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.063048221632973</v>
+        <v>-5.779544491434308</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.8685263976096</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.08534371900949</v>
+        <v>-15.16671146029556</v>
       </c>
       <c r="F68" t="n">
-        <v>1.702166274094907</v>
+        <v>1.726200631852661</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.17840433865783</v>
+        <v>-5.764183231858461</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.69560193071799</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.97668554139231</v>
+        <v>-15.14330289541677</v>
       </c>
       <c r="F69" t="n">
-        <v>1.710878484331749</v>
+        <v>1.824973237584943</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.92077323279888</v>
+        <v>-5.478264332267542</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.46961515827137</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.01638427715165</v>
+        <v>-15.16898484848867</v>
       </c>
       <c r="F70" t="n">
-        <v>1.565415863020429</v>
+        <v>1.663816904230826</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.90784180963589</v>
+        <v>-5.488736584976474</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.19004116168975</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.04271157912999</v>
+        <v>-15.40303627422849</v>
       </c>
       <c r="F71" t="n">
-        <v>1.475502137730996</v>
+        <v>1.645199566081614</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.846753668833788</v>
+        <v>-5.385720321283708</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.874692559262307</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.15674766430078</v>
+        <v>-15.4648919891087</v>
       </c>
       <c r="F72" t="n">
-        <v>1.393445046476695</v>
+        <v>1.544119349108147</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.696035365140534</v>
+        <v>-5.294652790373684</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.528859100060044</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.28035153591013</v>
+        <v>-15.65422366903685</v>
       </c>
       <c r="F73" t="n">
-        <v>1.316770751782868</v>
+        <v>1.479496456341265</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.856253009176204</v>
+        <v>-5.40338919210074</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.160288567569738</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.43020448538794</v>
+        <v>-15.81407952656436</v>
       </c>
       <c r="F74" t="n">
-        <v>1.212889133874659</v>
+        <v>1.47276918289239</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.749965999889473</v>
+        <v>-5.219899875378554</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.789891848461226</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.64817596754247</v>
+        <v>-15.96922727047904</v>
       </c>
       <c r="F75" t="n">
-        <v>1.107315919590498</v>
+        <v>1.36491280240138</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.770416715613778</v>
+        <v>-5.175082349429545</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.424716438763856</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.66675908264362</v>
+        <v>-15.90239454660832</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9307983266605339</v>
+        <v>1.1651235367849</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.871721826903123</v>
+        <v>-5.296334608735902</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.07751206517209</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.74834194023183</v>
+        <v>-15.83953658532039</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7733185264703364</v>
+        <v>1.002163159896891</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.78876515838531</v>
+        <v>-5.144125157948239</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-7.768888009566793</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.90913648707779</v>
+        <v>-16.14065540726055</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7896380313920985</v>
+        <v>0.9857165407965894</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.764300568023268</v>
+        <v>-4.963808806682683</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-7.503437005874342</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.0142745797508</v>
+        <v>-16.32128465496559</v>
       </c>
       <c r="F79" t="n">
-        <v>0.5177016914405553</v>
+        <v>0.7975435554958999</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.784976178063451</v>
+        <v>-4.964815942097267</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.292866571197727</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.51988589191341</v>
+        <v>-16.73308081435897</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5036946867668439</v>
+        <v>0.7107196825463574</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.732957144999475</v>
+        <v>-4.925322544626328</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.149537359653883</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.04431010249991</v>
+        <v>-17.25782769939869</v>
       </c>
       <c r="F81" t="n">
-        <v>0.3391356046333537</v>
+        <v>0.6096736886209593</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.796792907660785</v>
+        <v>-4.746384893297241</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-7.067834155974383</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.46197307013358</v>
+        <v>-17.62420009599156</v>
       </c>
       <c r="F82" t="n">
-        <v>0.01667137871224448</v>
+        <v>0.3050005586885535</v>
       </c>
       <c r="G82" t="n">
-        <v>-5.829055463975556</v>
+        <v>-4.802975147781781</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-7.052526881083713</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.97373964194164</v>
+        <v>-18.09814531067716</v>
       </c>
       <c r="F83" t="n">
-        <v>0.01705761025473076</v>
+        <v>0.3241947996480616</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.84271046015485</v>
+        <v>-4.872394156285107</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-7.10664284342537</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.78796951257826</v>
+        <v>-19.03048869821157</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.06591861429054974</v>
+        <v>0.1135812728282326</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.844802955093889</v>
+        <v>-4.712005397009094</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.216725451958015</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.44192796010367</v>
+        <v>-19.64625911309951</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.2423139820488411</v>
+        <v>0.08352365861043948</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.932736632602222</v>
+        <v>-4.81876175095505</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.38356676855092</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.13364909666913</v>
+        <v>-20.36948012090851</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.3552500406745764</v>
+        <v>-0.1164024991983135</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.148512950673513</v>
+        <v>-4.898609011105505</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.603625804184539</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.86047330253904</v>
+        <v>-21.04721380882772</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.4647393494591366</v>
+        <v>-0.1971053355504785</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.493520387257966</v>
+        <v>-5.193318345043138</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.857567179446031</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.69436675879439</v>
+        <v>-21.8180635215342</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.575030455369871</v>
+        <v>-0.2858799222399201</v>
       </c>
       <c r="G88" t="n">
-        <v>-6.741940604179649</v>
+        <v>-5.515890129115319</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.146084900071971</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.68600891061761</v>
+        <v>-22.73442963462754</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8004087829277832</v>
+        <v>-0.5851311435569172</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.778275703214561</v>
+        <v>-5.359412575332839</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-8.46354228976814</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.76917815999635</v>
+        <v>-23.90496054771118</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.073376703328246</v>
+        <v>-0.8402688559137407</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.178690254621762</v>
+        <v>-5.809861223016048</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-8.791427892933141</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.01313706721419</v>
+        <v>-25.23632023068886</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.055913170799625</v>
+        <v>-0.9365334011232961</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.535074410185527</v>
+        <v>-6.114925473497807</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-9.133760616862931</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.23926576638839</v>
+        <v>-26.39421306102153</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.282401302916327</v>
+        <v>-1.12019872209269</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.859860914368421</v>
+        <v>-6.498883627790972</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-9.484912567986962</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.5324520837492</v>
+        <v>-27.60170486601905</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.543430268547783</v>
+        <v>-1.346716188250593</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.213429001976843</v>
+        <v>-6.986268722353723</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-9.825916746516576</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.02739793649385</v>
+        <v>-28.94397192331682</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.833069702364425</v>
+        <v>-1.749262346651769</v>
       </c>
       <c r="G94" t="n">
-        <v>-8.54255205525069</v>
+        <v>-7.117259883338976</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-10.15935041303619</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.62224331105361</v>
+        <v>-30.6910829722432</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.113209795838652</v>
+        <v>-1.999305713853267</v>
       </c>
       <c r="G95" t="n">
-        <v>-8.86653676230741</v>
+        <v>-7.601594237616772</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-10.46896859590523</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.44072408222323</v>
+        <v>-32.31859669068769</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.170557846387564</v>
+        <v>-2.045717056040891</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.239171976696801</v>
+        <v>-7.9277056626606</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-10.73491483175147</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.13652011507448</v>
+        <v>-34.12145952942095</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.536636902568422</v>
+        <v>-2.490748684115558</v>
       </c>
       <c r="G97" t="n">
-        <v>-9.663117318154464</v>
+        <v>-8.401709545428604</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-10.94628013444256</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.11846483083939</v>
+        <v>-35.94609067122914</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.928334354731914</v>
+        <v>-2.899391434079777</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.11137569076129</v>
+        <v>-8.762909372756281</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-11.09400526731292</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.16277127369525</v>
+        <v>-37.96288178343799</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.194697226855174</v>
+        <v>-3.155990959489808</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.48874835280473</v>
+        <v>-9.181750591044885</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-11.1437975548588</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.36246502180225</v>
+        <v>-40.07863128364007</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.563944359485792</v>
+        <v>-3.712003043443445</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.62995753814183</v>
+        <v>-9.541190375900472</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-11.11822235752418</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.26415913435019</v>
+        <v>-41.86578818781337</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.005055004053193</v>
+        <v>-4.219560180339086</v>
       </c>
       <c r="G101" t="n">
-        <v>-10.92058455134559</v>
+        <v>-9.881338139659212</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-10.96307158100156</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.46523402689711</v>
+        <v>-43.9846470963828</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.236525034167282</v>
+        <v>-4.673000900224848</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.06817389064402</v>
+        <v>-10.17192115180117</v>
       </c>
     </row>
   </sheetData>
